--- a/biology/Botanique/Orpin_âcre/Orpin_âcre.xlsx
+++ b/biology/Botanique/Orpin_âcre/Orpin_âcre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Orpin_%C3%A2cre</t>
+          <t>Orpin_âcre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sedum acre
 L'Orpin âcre (Sedum acre), Orpin brûlant, Poivre des murailles ou Poivre de muraille, est une plante vivace de la famille des Crassulacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Orpin_%C3%A2cre</t>
+          <t>Orpin_âcre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire de l'Ancien Monde : Europe, Afrique du Nord et Asie occidentale.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Orpin_%C3%A2cre</t>
+          <t>Orpin_âcre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sedum acre L. subsp. negletum (Ten.) Arcangeli
 Sedum acre (Masters) R.T.Clausen subsp. majus
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Orpin_%C3%A2cre</t>
+          <t>Orpin_âcre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,13 +592,15 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet orpin fait partie des sédums utilisés pour végétaliser les toitures végétales.
 Le toit vert est l'une des mesures efficaces pour améliorer les problèmes d'environnement écologique et pour maintenir le développement durable de la ville. La sélection des espèces a limité le développement rapide du toit vert. 
-Cette étude[1] montre qu'avec l'intensification du stress, la capacité de rétention d'eau diminue l'augmentation des fuites d'électrolyte. Sedum acre, a atteint un point de flétrissement permanent en 2 semaines de stress hydrique. 
-Dans certaines régions cet Orpin faisait partie des plantes de la Saint-Jean[2].
-D'après une étude[3], Sedum acre est une source potentielle de phénols en tant que substance antioxydante, antibactérienne et anticancéreuse naturelle de grande valeur. Les résultats de cette étude ont montré le grand potentiel de S. acre pour une utilisation dans la phytothérapie, les produits pharmaceutiques et l'industrie alimentaire.
+Cette étude montre qu'avec l'intensification du stress, la capacité de rétention d'eau diminue l'augmentation des fuites d'électrolyte. Sedum acre, a atteint un point de flétrissement permanent en 2 semaines de stress hydrique. 
+Dans certaines régions cet Orpin faisait partie des plantes de la Saint-Jean.
+D'après une étude, Sedum acre est une source potentielle de phénols en tant que substance antioxydante, antibactérienne et anticancéreuse naturelle de grande valeur. Les résultats de cette étude ont montré le grand potentiel de S. acre pour une utilisation dans la phytothérapie, les produits pharmaceutiques et l'industrie alimentaire.
 </t>
         </is>
       </c>
